--- a/data/trans_camb/P21_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P21_R-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>13.24484074918507</v>
+        <v>12.4539779102567</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>7.092420576424587</v>
+        <v>6.976035394425526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12.15791962746722</v>
+        <v>12.31446822457118</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9.75889302536013</v>
+        <v>8.587908887954883</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>7.295991266490054</v>
+        <v>6.963401856966837</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>9.254965713306849</v>
+        <v>9.737487860786199</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>12.86955846903762</v>
+        <v>13.35634586253147</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>9.554712293888025</v>
+        <v>9.469624244637901</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>12.75433409131676</v>
+        <v>12.61167797623146</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>27.37856440822369</v>
+        <v>26.48771904411211</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.71931890446339</v>
+        <v>20.87951997926887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>25.28534038531294</v>
+        <v>26.10758145772161</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25.32500870708237</v>
+        <v>24.18983395313196</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>22.29876989703748</v>
+        <v>22.47980950424999</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.68009428011373</v>
+        <v>23.34701673201237</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>23.7581527292876</v>
+        <v>23.39753320182465</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.73479123596679</v>
+        <v>19.85175429124745</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>22.39696217532856</v>
+        <v>22.6809286479991</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.6845616976755673</v>
+        <v>0.7100949315640894</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.4015261514400227</v>
+        <v>0.4109585511639799</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.6408499087961347</v>
+        <v>0.6622820409709906</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3759685903051042</v>
+        <v>0.3428129761082485</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2853515343880222</v>
+        <v>0.262324998768625</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3371278541572693</v>
+        <v>0.3552854594721947</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6379891588552391</v>
+        <v>0.6327231053083636</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.4705257718611255</v>
+        <v>0.4569907521644806</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.5969964935829563</v>
+        <v>0.5981361175669839</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.388628626545482</v>
+        <v>2.326773077699027</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.884430123661867</v>
+        <v>1.835097959653765</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.247306541007076</v>
+        <v>2.253685513152866</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.460410769673459</v>
+        <v>1.366078224494974</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.294353138681537</v>
+        <v>1.274477675164764</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.365566200149897</v>
+        <v>1.311564261674971</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.527013120759448</v>
+        <v>1.514993312557217</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.266674168323819</v>
+        <v>1.29010891380075</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.451589229078663</v>
+        <v>1.455857195070269</v>
       </c>
     </row>
     <row r="10">
@@ -869,7 +869,7 @@
         <v>-4.374174279975668</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-5.564507558930101</v>
+        <v>-5.564507558930099</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>11.70029205249043</v>
@@ -878,7 +878,7 @@
         <v>-1.527703796271326</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>-2.832814996576274</v>
+        <v>-2.832814996576272</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>4.365785540730452</v>
+        <v>5.576182111292416</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.292573595961841</v>
+        <v>-3.405934121465186</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.272118836957489</v>
+        <v>-5.269493023362304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6.863512145731283</v>
+        <v>6.618976217515484</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-10.00611670548083</v>
+        <v>-9.376510793334866</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-10.55031597532487</v>
+        <v>-10.38780318740486</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>7.631185654321536</v>
+        <v>7.817600879677634</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-4.873428651539255</v>
+        <v>-5.161804539761214</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-6.52598472267406</v>
+        <v>-6.241083194460811</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.76503683192664</v>
+        <v>16.27699589217453</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.270132572775333</v>
+        <v>6.286213586607921</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.968077690305959</v>
+        <v>5.14446529918045</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.87437529718438</v>
+        <v>18.69287370006149</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.7620119979700457</v>
+        <v>0.8909372907530726</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-0.6608522719345872</v>
+        <v>-0.9128517802372547</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>15.87345406331964</v>
+        <v>15.51981416635194</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.941975041766259</v>
+        <v>2.174945618453922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.117101573733789</v>
+        <v>1.02413151947004</v>
       </c>
     </row>
     <row r="13">
@@ -974,7 +974,7 @@
         <v>-0.1721895430180617</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.2190470594825166</v>
+        <v>-0.2190470594825165</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5732657595466919</v>
@@ -983,7 +983,7 @@
         <v>-0.07485114672376364</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>-0.1387961799057739</v>
+        <v>-0.1387961799057737</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.2695492001291812</v>
+        <v>0.3133487124317531</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1887474998603411</v>
+        <v>-0.1944740490767159</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3014274931353681</v>
+        <v>-0.3044686348538427</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2486514738532626</v>
+        <v>0.235451082259967</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3522027979995467</v>
+        <v>-0.3401426570885697</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.372544362336248</v>
+        <v>-0.3672015123271104</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3322705692286236</v>
+        <v>0.3486888207676685</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.222088497087027</v>
+        <v>-0.2322971824845515</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.2830682583085681</v>
+        <v>-0.2761592236514367</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.285596953423987</v>
+        <v>1.270109856465579</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.4975868236502281</v>
+        <v>0.4782565169101022</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.3859511727324357</v>
+        <v>0.3946264657496572</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8495116829209584</v>
+        <v>0.8303790377761868</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03417321587572464</v>
+        <v>0.03583766278952123</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.02869327304579468</v>
+        <v>-0.03938548712142993</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8441968946848181</v>
+        <v>0.839638243851534</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1059044879366521</v>
+        <v>0.1170116385569602</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.06460260055330579</v>
+        <v>0.06074352255683527</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.385532343080119</v>
+        <v>-4.689853561192936</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-15.66969650019565</v>
+        <v>-15.77045160271967</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.081584821338401</v>
+        <v>-4.289671059079896</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-5.05132355495189</v>
+        <v>-4.153688506822078</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-17.61834628605568</v>
+        <v>-17.58310455810204</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2996469137892247</v>
+        <v>0.2934456971492191</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-2.403703598829956</v>
+        <v>-2.91508376038388</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-14.86003466570383</v>
+        <v>-15.03216419026802</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1502760912592437</v>
+        <v>-0.01057477728904446</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.960618286830686</v>
+        <v>8.741875453731302</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-4.355574504015429</v>
+        <v>-3.723184365733385</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.716723553173535</v>
+        <v>8.811196653466139</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.748871526140864</v>
+        <v>9.283827794825267</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-5.59786073939823</v>
+        <v>-5.517987948942825</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>12.99325112664184</v>
+        <v>13.07965320105769</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>7.125383685954866</v>
+        <v>6.92497580589913</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>-6.556160900824448</v>
+        <v>-6.3912809013535</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>9.137673637798283</v>
+        <v>9.123475621324829</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1755183591479775</v>
+        <v>-0.1957805728714473</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6250344602341751</v>
+        <v>-0.6272335954723236</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.2020311824229767</v>
+        <v>-0.170904192426485</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1717252165024824</v>
+        <v>-0.1434296709038582</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6022832939506774</v>
+        <v>-0.6014533219377693</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01065675198191943</v>
+        <v>0.006873996506055561</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.09242055587838238</v>
+        <v>-0.1149837229449289</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5658699687740532</v>
+        <v>-0.5743390629643023</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.005790150753203706</v>
+        <v>-0.00295047536205978</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5024952142677885</v>
+        <v>0.4639740103999175</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.2280836577613589</v>
+        <v>-0.1942046632678804</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.481612329475182</v>
+        <v>0.4944376711466765</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4005485503082012</v>
+        <v>0.411899863037479</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.2456407829810228</v>
+        <v>-0.2422426121038283</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6139465618127098</v>
+        <v>0.583554659656739</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3289014557276587</v>
+        <v>0.3191605664075312</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.2993879035828305</v>
+        <v>-0.2944135137470447</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.4301606934868089</v>
+        <v>0.418423561428904</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>5.726669808396825</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.475074332258949</v>
+        <v>3.475074332258957</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.9565732296467566</v>
@@ -1306,7 +1306,7 @@
         <v>5.104535163075566</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.3886625985674824</v>
+        <v>0.3886625985674852</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-5.10994437955376</v>
+        <v>-5.582854948628986</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.9233525165363696</v>
+        <v>-0.201518833569315</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.171418001369408</v>
+        <v>-3.247689348952059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-6.994267853481658</v>
+        <v>-7.886633215502186</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.374246457478392</v>
+        <v>-2.398009222919646</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-9.042730756186135</v>
+        <v>-8.892671505809496</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-4.665834197614663</v>
+        <v>-4.452832055890918</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4712738410825322</v>
+        <v>0.4546566279491534</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-4.440278885391546</v>
+        <v>-4.483538303547624</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>7.051657997150944</v>
+        <v>7.415496572201052</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>12.14784259160733</v>
+        <v>12.28018986043044</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.55035557404008</v>
+        <v>11.55616220361204</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5.440302578186563</v>
+        <v>5.247706345552943</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.24754065346755</v>
+        <v>11.18121179965304</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.321166095953232</v>
+        <v>3.369141900410051</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.242126970950568</v>
+        <v>4.135240841031093</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>9.770974068366296</v>
+        <v>9.58567823398141</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>5.12965208327761</v>
+        <v>4.69981252964696</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.2753134068674279</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.1670664776462116</v>
+        <v>0.167066477646212</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.03424520095766723</v>
@@ -1411,7 +1411,7 @@
         <v>0.2089517710422612</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.01590972257298184</v>
+        <v>0.01590972257298195</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.2210838699196928</v>
+        <v>-0.2311390748224158</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.03896284160322926</v>
+        <v>-0.009343940388258328</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1737362444562554</v>
+        <v>-0.1343947873413568</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2303171900785399</v>
+        <v>-0.2554457828695064</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.07540931878528921</v>
+        <v>-0.08188828106915877</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2963896035334719</v>
+        <v>-0.284759521562134</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.179078648517254</v>
+        <v>-0.1666903981737426</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.01795719576020312</v>
+        <v>0.01526114670024176</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1638202678059625</v>
+        <v>-0.170640584342343</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.3857822451154033</v>
+        <v>0.4148241493299205</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6816932520580121</v>
+        <v>0.7142668016883513</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.5645347845997782</v>
+        <v>0.6708189211267719</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.2239699407175877</v>
+        <v>0.2145942836686777</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4390518196887786</v>
+        <v>0.4450289518634197</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1288403476010944</v>
+        <v>0.1382385950194923</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1916011869797886</v>
+        <v>0.1862501774806788</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.437553388192401</v>
+        <v>0.4292255479948072</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2260361794840282</v>
+        <v>0.208208888837407</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>-4.490817217380879</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-7.962556846603322</v>
+        <v>-7.962556846603325</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>15.69267510752409</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-6.664425744417144</v>
+        <v>-6.935573068730363</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-11.11193488833946</v>
+        <v>-11.60844776664834</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-14.41686007178558</v>
+        <v>-14.04092123277964</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7.521998585992619</v>
+        <v>7.420360128042949</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-13.52117874787182</v>
+        <v>-13.59344431995608</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-21.786349962584</v>
+        <v>-21.49990201642706</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>2.690310375267564</v>
+        <v>2.703176076441394</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-10.46858594944899</v>
+        <v>-10.58853375817424</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-16.5371773719958</v>
+        <v>-16.21588837840948</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>7.558760145365328</v>
+        <v>8.318776036010281</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.740685938207756</v>
+        <v>2.33741342262702</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.552623028685966</v>
+        <v>-1.752847470446226</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>24.79431679961528</v>
+        <v>24.21794252173585</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.9981367335544928</v>
+        <v>1.293414970716703</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-8.797084422984355</v>
+        <v>-9.082058837290086</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.87811493094082</v>
+        <v>13.65738797365653</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>-0.5966168909582941</v>
+        <v>-0.5705882800363816</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>-7.610700056696327</v>
+        <v>-7.674736828248196</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>-0.2625720543753225</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.4655600101471691</v>
+        <v>-0.4655600101471693</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7751676690462294</v>
@@ -1616,7 +1616,7 @@
         <v>-0.3072386306618956</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>-0.7607716702528682</v>
+        <v>-0.7607716702528683</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4332631556787321</v>
@@ -1625,7 +1625,7 @@
         <v>-0.2866443782577376</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>-0.6316372895792374</v>
+        <v>-0.6316372895792375</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.327546833318057</v>
+        <v>-0.3380869883072202</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.5323585399410402</v>
+        <v>-0.5443134147330626</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.6977858877506584</v>
+        <v>-0.6740958684734814</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.3151773174409297</v>
+        <v>0.2848546305559328</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.5668811745135414</v>
+        <v>-0.55333609610436</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.8595606093783377</v>
+        <v>-0.8579724720555324</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1307858885070412</v>
+        <v>0.1217980009181619</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.4894362066349728</v>
+        <v>-0.4893008247090871</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.7533670056619541</v>
+        <v>-0.7429807557205266</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.5497088526115815</v>
+        <v>0.6724492141954904</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.1327344724358899</v>
+        <v>0.1695026907537608</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.0879013676892858</v>
+        <v>-0.09652482105709727</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.545445778501192</v>
+        <v>1.489689457290479</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.06341658217741324</v>
+        <v>0.09454848965946264</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.5927731267089906</v>
+        <v>-0.601484940109724</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.872825173109176</v>
+        <v>0.8420231941616778</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>-0.03724961144474197</v>
+        <v>-0.03200366760959333</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>-0.4735995146740216</v>
+        <v>-0.4696542371152967</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>-3.563105301384051</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>-2.247510750823517</v>
+        <v>-2.247510750823534</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.327866019925989</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-5.14613186442811</v>
+        <v>-4.952877422077029</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-6.788397814056038</v>
+        <v>-6.609367875708363</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.701372217345715</v>
+        <v>-3.514797586421009</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-4.65352330494893</v>
+        <v>-4.876661236421239</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-11.36110055586739</v>
+        <v>-11.07113704600785</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-8.955982260361445</v>
+        <v>-8.405856143364529</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.991474586785913</v>
+        <v>-2.548676542089364</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.661867750915563</v>
+        <v>-7.044927430826252</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-4.528108241326065</v>
+        <v>-3.972649150955062</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>8.99865505804051</v>
+        <v>8.403599903829825</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.980039212517513</v>
+        <v>7.011594635615803</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.20460908834395</v>
+        <v>10.27633335860149</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>11.45277798201405</v>
+        <v>10.80796081374427</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.898703607477218</v>
+        <v>4.428550310112104</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>6.163662319448317</v>
+        <v>4.664992233659762</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.535721395150158</v>
+        <v>8.068172012059234</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>3.765902359249477</v>
+        <v>3.662736480647466</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>5.419843722332321</v>
+        <v>5.325159202291752</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>-0.1130165042869122</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>-0.07128776359953813</v>
+        <v>-0.07128776359953866</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.08741662765034044</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2115001668873399</v>
+        <v>-0.2095484337524913</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.2659171598066457</v>
+        <v>-0.2665727540934657</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1415388070563799</v>
+        <v>-0.1357126889595747</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1295490159117727</v>
+        <v>-0.1385209299165995</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.3185410668713195</v>
+        <v>-0.3135187748667873</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.2526533568797633</v>
+        <v>-0.2491315007446956</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1014596806239198</v>
+        <v>-0.08756131015831173</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.2305694319627695</v>
+        <v>-0.240456030444745</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1568480826563688</v>
+        <v>-0.1338482274616359</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.5037000003958148</v>
+        <v>0.4662495140115455</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3985469169822181</v>
+        <v>0.3939698967386566</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.5557347001966559</v>
+        <v>0.5884339637921715</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.4439884948320156</v>
+        <v>0.3889919862226436</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.1819246249908119</v>
+        <v>0.1641755348843692</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.2287263381065875</v>
+        <v>0.1693433652000954</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.3214988085462491</v>
+        <v>0.34312838472944</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1614773019454567</v>
+        <v>0.1542055024806125</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.2285194869561334</v>
+        <v>0.2266245974355729</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-8.321704350172013</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>8.240180922128658</v>
+        <v>8.240180922128653</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>2.320234875246904</v>
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.5838609817853609</v>
+        <v>-0.3343406060449719</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-10.62769545819244</v>
+        <v>-10.33381292687961</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.627700699442556</v>
+        <v>4.335425280750252</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-4.708040593337072</v>
+        <v>-4.329029225373272</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-13.04409433559782</v>
+        <v>-13.07700568078733</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>3.103354061827973</v>
+        <v>3.49441112077549</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.7978835768363066</v>
+        <v>-1.309831090473126</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-11.03310575976992</v>
+        <v>-10.88571113111948</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>5.02284895113876</v>
+        <v>5.007293813740934</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.473552711683805</v>
+        <v>8.768568566681481</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-2.135836175192417</v>
+        <v>-2.207910615121748</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>13.83117614522432</v>
+        <v>13.88026876191685</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>5.396611172262914</v>
+        <v>5.835088187867374</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-3.697941688893126</v>
+        <v>-3.925612973761034</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>13.10675276457175</v>
+        <v>12.76657718853187</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>5.856853081864456</v>
+        <v>5.427982747054505</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>-4.284968344132198</v>
+        <v>-4.618520311479797</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>12.50599395784088</v>
+        <v>11.70770371446449</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.3148130663255145</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3117290057437221</v>
+        <v>0.3117290057437219</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1041806951808013</v>
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.0257327428010324</v>
+        <v>-0.01068702067222875</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5282346433075877</v>
+        <v>-0.5182824753729915</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1852749985265569</v>
+        <v>0.2105631297182764</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1564170894782352</v>
+        <v>-0.1509724788269211</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.450501647192845</v>
+        <v>-0.4497216114218798</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1090246500498432</v>
+        <v>0.1218449957564186</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.03372639473273097</v>
+        <v>-0.05683427892155681</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.4517704040737101</v>
+        <v>-0.4476204914133314</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2124605776150743</v>
+        <v>0.2067811646237012</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5430412746098636</v>
+        <v>0.5822158678768485</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.1437960282433114</v>
+        <v>-0.1284801972326512</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8634408896188162</v>
+        <v>0.8770316177326655</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.2195167339270223</v>
+        <v>0.2488822074508817</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1496862665537053</v>
+        <v>-0.1613682637416535</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5502336196221258</v>
+        <v>0.5386054534711574</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.2814871993397236</v>
+        <v>0.2685927568306366</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>-0.2044111976493432</v>
+        <v>-0.2225964859558344</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.6042258405445142</v>
+        <v>0.5664093495676272</v>
       </c>
     </row>
     <row r="46">
@@ -2144,7 +2144,7 @@
         <v>-0.03228874756780742</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.4831250101885121</v>
+        <v>-0.4831250101885148</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>-6.45099897327075</v>
@@ -2153,7 +2153,7 @@
         <v>-2.122156630838334</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>-3.868323247628819</v>
+        <v>-3.868323247628816</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-5.429986500189369</v>
@@ -2162,7 +2162,7 @@
         <v>-1.097046592204454</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-2.228462302453979</v>
+        <v>-2.228462302453982</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.365994063069794</v>
+        <v>-7.70495952180086</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-3.401006736494468</v>
+        <v>-3.503573035960175</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.837006181941768</v>
+        <v>-3.96626811442042</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-10.19512330517136</v>
+        <v>-10.06840262085114</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-5.949092155554619</v>
+        <v>-6.419482031945561</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-7.349771977957414</v>
+        <v>-7.592834430726003</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-8.308154405539767</v>
+        <v>-8.035997551958092</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-3.876221025983361</v>
+        <v>-3.390072122715151</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.795879465551725</v>
+        <v>-4.476445101394705</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-0.7735806658959847</v>
+        <v>-0.9335592993497615</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>3.5487898108333</v>
+        <v>3.092642181160098</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2.914249951513917</v>
+        <v>3.161526890962854</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-2.988147381732709</v>
+        <v>-2.537187668719038</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>2.012535284743576</v>
+        <v>1.737295104993789</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>0.1214273291389597</v>
+        <v>-0.04895562320040885</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-2.95589732936797</v>
+        <v>-3.055303939089565</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.453513313460006</v>
+        <v>1.820106555856419</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>0.3378261519432266</v>
+        <v>0.2726498448283001</v>
       </c>
     </row>
     <row r="49">
@@ -2249,7 +2249,7 @@
         <v>-0.00243037261891769</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.03636479841191383</v>
+        <v>-0.03636479841191403</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>-0.3324553490813734</v>
@@ -2258,7 +2258,7 @@
         <v>-0.1093663673539541</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>-0.1993559076630868</v>
+        <v>-0.1993559076630866</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3306055959139015</v>
@@ -2267,7 +2267,7 @@
         <v>-0.06679385710230026</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.1356802834498334</v>
+        <v>-0.1356802834498336</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.4965061003247916</v>
+        <v>-0.5093444755910661</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2251674453406658</v>
+        <v>-0.2306678502776702</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.2635204927654058</v>
+        <v>-0.2489961885232811</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.4767522937106117</v>
+        <v>-0.4735748943893879</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.2805945466795119</v>
+        <v>-0.3076442706206074</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.3400616250648138</v>
+        <v>-0.3498980235884433</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.4605948575579829</v>
+        <v>-0.4569625125636427</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2156935444945871</v>
+        <v>-0.1894218360311842</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.2639171488553231</v>
+        <v>-0.2579721835613775</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.07025909740673315</v>
+        <v>-0.07541384912190494</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.3015692120900276</v>
+        <v>0.2692037155579672</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2548935412182386</v>
+        <v>0.2629949559746414</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.1679175954876512</v>
+        <v>-0.145537195436878</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1221873800576871</v>
+        <v>0.1032326829092728</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.006842912098721906</v>
+        <v>-0.002753048467598096</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1951545880043642</v>
+        <v>-0.2053179228330437</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.09861258490552698</v>
+        <v>0.1198135359254783</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.02413299817245418</v>
+        <v>0.01762046010783942</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>-0.4207235521661717</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>3.659004373221736</v>
+        <v>3.659004373221741</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>3.158858739820849</v>
@@ -2367,7 +2367,7 @@
         <v>-2.869157597172764</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.6805572719389891</v>
+        <v>0.6805572719389946</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.35245648172626</v>
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.488020573149294</v>
+        <v>1.65005305374459</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-2.321618206128275</v>
+        <v>-2.344411315053557</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1.654048248418823</v>
+        <v>1.403805865417887</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.247149009632571</v>
+        <v>1.007810058274502</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-4.866375297667523</v>
+        <v>-5.013096542797446</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.28483519245967</v>
+        <v>-1.211877386775301</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>1.776312592563829</v>
+        <v>1.754167982770443</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>-3.102537994015963</v>
+        <v>-3.105621148043442</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>0.6752716239890051</v>
+        <v>0.9208114844976087</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.55740385774485</v>
+        <v>5.430601145013339</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.310539261275435</v>
+        <v>1.366957354780884</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>5.788527566417664</v>
+        <v>5.583132241165647</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.573182186214011</v>
+        <v>5.257284219487553</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>-0.9704854539355755</v>
+        <v>-0.9316643832320252</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>2.821863589227203</v>
+        <v>2.737327070464678</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>4.761889471520457</v>
+        <v>4.794818718642153</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>-0.2962544825444586</v>
+        <v>-0.3286601492865101</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>3.570203353028496</v>
+        <v>3.650472552497476</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>-0.0245945512121142</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.2138971540319382</v>
+        <v>0.2138971540319385</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.129506355518056</v>
@@ -2472,7 +2472,7 @@
         <v>-0.1176292371459006</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02790137175147236</v>
+        <v>0.02790137175147259</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.1611361338350257</v>
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.07838169950155989</v>
+        <v>0.09122079739023083</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1305119570661614</v>
+        <v>-0.1313534236633689</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.08863993906849355</v>
+        <v>0.0761748406290409</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.04904609328306311</v>
+        <v>0.04025965864125411</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.1938600077017109</v>
+        <v>-0.1974664236498273</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.05069076706041405</v>
+        <v>-0.04813247126198806</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.08230710049588881</v>
+        <v>0.08092004212851474</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>-0.144816108954255</v>
+        <v>-0.1433844161069473</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.03113523663700613</v>
+        <v>0.04314885782723728</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.3406003114507229</v>
+        <v>0.3380116267924539</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.0825652854037032</v>
+        <v>0.08224720270839</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.3490946284840951</v>
+        <v>0.3395338648124119</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.2376868143307482</v>
+        <v>0.2279844646830199</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>-0.04134892612945957</v>
+        <v>-0.04109064433123549</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1190875524526893</v>
+        <v>0.1152264699864266</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.2344943609768379</v>
+        <v>0.239931268446021</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>-0.01449120956877626</v>
+        <v>-0.0154943319751499</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.1786087218990403</v>
+        <v>0.1862313734309165</v>
       </c>
     </row>
     <row r="58">
